--- a/URS/DbLayouts/L5-管理性作業/CollTel.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/CollTel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A7823B-0C94-41D2-825F-F69606B1F96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ED4BCE-A436-4E35-AD72-1ACD77FF1332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>作業日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8/18 已與舜文確認只需填入時間此欄位由6碼改成4碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -908,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -919,7 +923,7 @@
     <col min="3" max="3" width="27.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
@@ -1166,7 +1170,10 @@
         <v>31</v>
       </c>
       <c r="E16" s="23">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:5">
